--- a/data/EMPLOYEE_DIR.xlsx
+++ b/data/EMPLOYEE_DIR.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Employees" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,47 +425,427 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="18" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
+    <col width="13" customWidth="1" min="6" max="6"/>
+    <col width="18" customWidth="1" min="7" max="7"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>INVALID_COL1</t>
+          <t>EMP ID</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>INVALID_COL2</t>
+          <t>EMP NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>DEPARTMENT</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>LOCATION</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>GRADE</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MOBILE</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>EXTENSION NUMBER</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Data1</t>
+          <t>12345</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Data3</t>
+          <t>John Doe</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Senior Developer</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>+1-555-0101</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1001</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Data2</t>
+          <t>12346</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Data4</t>
+          <t>Jane Smith</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>HR</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Los Angeles</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Manager</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>+1-555-0102</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1002</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>12347</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Mike Johnson</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Chicago</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Analyst</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>+1-555-0103</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1003</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>12348</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Sarah Wilson</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Seattle</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Developer</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>+1-555-0104</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1004</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>12349</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>David Brown</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Sales</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Miami</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Representative</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>+1-555-0105</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1005</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>12350</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Lisa Anderson</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Marketing</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Coordinator</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>+1-555-0106</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1006</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>12351</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Robert Taylor</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Austin</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Team Lead</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>+1-555-0107</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1007</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>12352</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Emily Davis</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Denver</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Manager</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>+1-555-0108</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1008</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>12353</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Chris Miller</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>San Francisco</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Senior Developer</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>+1-555-0109</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1009</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>12354</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Amanda Garcia</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Customer Service</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Phoenix</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Supervisor</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>+1-555-0110</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1010</t>
         </is>
       </c>
     </row>
